--- a/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
@@ -154,7 +154,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -356,7 +356,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EB53C7-190C-4EAA-A482-88D2C8C0250B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BC9337-2520-4C7E-AE6C-138CA9B71B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\09. contractno\Case1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BC9337-2520-4C7E-AE6C-138CA9B71B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4523CD48-405A-43FB-8370-B5F9DAE4A0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>creationDate</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>sendFormType</t>
-  </si>
-  <si>
-    <t>fillingNo</t>
   </si>
   <si>
     <t>overdueFlag</t>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>selectType</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,115 +672,115 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
@@ -790,68 +790,70 @@
     </row>
     <row r="2" spans="1:49 16383:16384" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -859,42 +861,42 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="AI2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>

--- a/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\09. contractno\Case1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4523CD48-405A-43FB-8370-B5F9DAE4A0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C208962-2A72-4FBE-ADED-73BFFCF71862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -225,10 +225,10 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>selectType</t>
   </si>
   <si>
-    <t>selectType</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -793,7 +793,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>

--- a/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C208962-2A72-4FBE-ADED-73BFFCF71862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B81E4A-946F-4A77-8E71-6792CFA29D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>creationDate</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -595,8 +598,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFD996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,7 +887,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="3" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="AO2" s="2" t="s">
         <v>49</v>

--- a/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B81E4A-946F-4A77-8E71-6792CFA29D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258572B8-C6BE-4CE3-AA89-7E41913D5749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -228,10 +228,10 @@
     <t>selectType</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -796,7 +796,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
@@ -887,7 +887,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AO2" s="2" t="s">
         <v>49</v>

--- a/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B1C5D7-0696-4A21-BEFC-B8D1B8C289C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B28752A-84CA-410B-9D15-4883726964C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B28752A-84CA-410B-9D15-4883726964C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CD8656-7363-41F7-AE22-ABAD0D2A8AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -296,9 +296,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -336,7 +336,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -442,7 +442,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -584,7 +584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE394190-CBCE-4E31-BA16-76F085D13F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0784567-4558-4CFB-88F7-B020A1D13B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -296,9 +296,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -336,7 +336,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -442,7 +442,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -584,7 +584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0784567-4558-4CFB-88F7-B020A1D13B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119EEE97-F6FF-402D-ACCF-93B2734D6E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <dimension ref="A1:XFC996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119EEE97-F6FF-402D-ACCF-93B2734D6E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D3EB8F-6727-4333-853D-0C0B57C1606F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
